--- a/public/小程序开发任务清单.xlsx
+++ b/public/小程序开发任务清单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personalDev\table-merge\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personalDev\excelToTable\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35C6BE-8B37-4F6F-AD9D-C0A92B4A6378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B99896-69F8-4572-B942-CDEAEA27F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小程序任务分解" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="145">
   <si>
     <t>应用</t>
   </si>
@@ -484,6 +484,14 @@
   </si>
   <si>
     <t>干系人管理12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列合并</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -744,11 +752,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,6 +859,63 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,19 +940,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,58 +964,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,9 +1294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,65 +1319,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="31" t="s">
         <v>136</v>
       </c>
@@ -1385,13 +1419,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1400,7 +1434,7 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="48" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1430,16 +1464,16 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
         <v>124</v>
       </c>
@@ -1457,8 +1491,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="66"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="21"/>
@@ -1467,16 +1503,16 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
         <v>124</v>
       </c>
@@ -1494,8 +1530,8 @@
         <v>3</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="22"/>
@@ -1504,9 +1540,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="57" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1515,7 +1551,7 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="10" t="s">
         <v>125</v>
       </c>
@@ -1543,16 +1579,16 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="10" t="s">
         <v>125</v>
       </c>
@@ -1570,7 +1606,9 @@
         <v>3</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="M8" s="76" t="s">
+        <v>144</v>
+      </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -1580,16 +1618,16 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="10" t="s">
         <v>125</v>
       </c>
@@ -1607,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="M9" s="77"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -1617,16 +1655,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="10" t="s">
         <v>126</v>
       </c>
@@ -1654,16 +1692,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="10" t="s">
         <v>126</v>
       </c>
@@ -1689,16 +1727,16 @@
       <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="10" t="s">
         <v>126</v>
       </c>
@@ -1724,8 +1762,8 @@
       <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1773,7 @@
       <c r="E13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="10" t="s">
         <v>126</v>
       </c>
@@ -1761,11 +1799,11 @@
       <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1774,7 +1812,7 @@
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="48" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="29" t="s">
@@ -1802,16 +1840,16 @@
       <c r="R14" s="20"/>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="29" t="s">
         <v>131</v>
       </c>
@@ -1837,16 +1875,16 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="29" t="s">
         <v>131</v>
       </c>
@@ -1872,9 +1910,9 @@
       <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="57" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1883,7 +1921,7 @@
       <c r="E17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="10" t="s">
         <v>127</v>
       </c>
@@ -1909,16 +1947,16 @@
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="10" t="s">
         <v>127</v>
       </c>
@@ -1944,16 +1982,16 @@
       <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="10" t="s">
         <v>127</v>
       </c>
@@ -1978,16 +2016,16 @@
       <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="10" t="s">
         <v>127</v>
       </c>
@@ -2013,16 +2051,16 @@
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="10" t="s">
         <v>127</v>
       </c>
@@ -2048,16 +2086,16 @@
       <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="10" t="s">
         <v>127</v>
       </c>
@@ -2083,8 +2121,8 @@
       <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:18" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
@@ -2094,7 +2132,7 @@
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="10" t="s">
         <v>128</v>
       </c>
@@ -2120,8 +2158,8 @@
       <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2133,7 +2171,7 @@
       <c r="E24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -2161,9 +2199,9 @@
       <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -2172,7 +2210,7 @@
       <c r="E25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="10" t="s">
         <v>129</v>
       </c>
@@ -2198,16 +2236,16 @@
       <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="10" t="s">
         <v>129</v>
       </c>
@@ -2232,8 +2270,8 @@
       <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2245,7 +2283,7 @@
       <c r="E27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -2273,9 +2311,9 @@
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2284,7 +2322,7 @@
       <c r="E28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="10" t="s">
         <v>128</v>
       </c>
@@ -2310,16 +2348,16 @@
       <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="10" t="s">
         <v>128</v>
       </c>
@@ -2345,18 +2383,18 @@
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -2384,16 +2422,16 @@
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="62" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="10" t="s">
         <v>130</v>
       </c>
@@ -2419,14 +2457,14 @@
       <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="63"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="10" t="s">
         <v>130</v>
       </c>
@@ -2452,16 +2490,16 @@
       <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="10" t="s">
         <v>130</v>
       </c>
@@ -2487,16 +2525,16 @@
       <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="46"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="10" t="s">
         <v>129</v>
       </c>
@@ -2522,16 +2560,16 @@
       <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="46"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="10" t="s">
         <v>129</v>
       </c>
@@ -2557,16 +2595,16 @@
       <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="10" t="s">
         <v>124</v>
       </c>
@@ -2592,16 +2630,16 @@
       <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="10" t="s">
         <v>126</v>
       </c>
@@ -2626,18 +2664,18 @@
       <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="59"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -2665,16 +2703,16 @@
       <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="62" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="10" t="s">
         <v>127</v>
       </c>
@@ -2700,14 +2738,14 @@
       <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="63"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="10" t="s">
         <v>127</v>
       </c>
@@ -2733,16 +2771,16 @@
       <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="10" t="s">
         <v>131</v>
       </c>
@@ -2768,16 +2806,16 @@
       <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="10" t="s">
         <v>131</v>
       </c>
@@ -2803,16 +2841,16 @@
       <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="29" t="s">
         <v>131</v>
       </c>
@@ -2838,16 +2876,16 @@
       <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="10" t="s">
         <v>131</v>
       </c>
@@ -2893,7 +2931,7 @@
       <c r="R45" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="62" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -2906,7 +2944,7 @@
       <c r="E46" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -2934,7 +2972,7 @@
       <c r="R46" s="20"/>
     </row>
     <row r="47" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="17" t="s">
         <v>71</v>
       </c>
@@ -2945,7 +2983,7 @@
       <c r="E47" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="10" t="s">
         <v>124</v>
       </c>
@@ -2971,8 +3009,8 @@
       <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -2984,7 +3022,7 @@
       <c r="E48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="10" t="s">
         <v>129</v>
       </c>
@@ -3010,8 +3048,8 @@
       <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="17" t="s">
         <v>78</v>
       </c>
@@ -3021,7 +3059,7 @@
       <c r="E49" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="44"/>
       <c r="G49" s="10" t="s">
         <v>129</v>
       </c>
@@ -3047,8 +3085,8 @@
       <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="17" t="s">
         <v>81</v>
       </c>
@@ -3058,7 +3096,7 @@
       <c r="E50" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="10" t="s">
         <v>129</v>
       </c>
@@ -3084,8 +3122,8 @@
       <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="57"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="17" t="s">
         <v>84</v>
       </c>
@@ -3095,7 +3133,7 @@
       <c r="E51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="10" t="s">
         <v>125</v>
       </c>
@@ -3121,8 +3159,8 @@
       <c r="R51" s="20"/>
     </row>
     <row r="52" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -3134,7 +3172,7 @@
       <c r="E52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="10" t="s">
         <v>131</v>
       </c>
@@ -3160,8 +3198,8 @@
       <c r="R52" s="20"/>
     </row>
     <row r="53" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="17" t="s">
         <v>91</v>
       </c>
@@ -3171,7 +3209,7 @@
       <c r="E53" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="10" t="s">
         <v>131</v>
       </c>
@@ -3197,8 +3235,8 @@
       <c r="R53" s="20"/>
     </row>
     <row r="54" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -3210,7 +3248,7 @@
       <c r="E54" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="46"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="10" t="s">
         <v>130</v>
       </c>
@@ -3236,8 +3274,8 @@
       <c r="R54" s="20"/>
     </row>
     <row r="55" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="10" t="s">
         <v>98</v>
       </c>
@@ -3247,7 +3285,7 @@
       <c r="E55" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="10" t="s">
         <v>130</v>
       </c>
@@ -3273,8 +3311,8 @@
       <c r="R55" s="20"/>
     </row>
     <row r="56" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="57"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="10" t="s">
         <v>101</v>
       </c>
@@ -3284,7 +3322,7 @@
       <c r="E56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="10" t="s">
         <v>130</v>
       </c>
@@ -3310,9 +3348,9 @@
       <c r="R56" s="20"/>
     </row>
     <row r="57" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="59" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -3321,7 +3359,7 @@
       <c r="E57" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="10" t="s">
         <v>125</v>
       </c>
@@ -3347,16 +3385,16 @@
       <c r="R57" s="20"/>
     </row>
     <row r="58" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="46"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="46"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="10" t="s">
         <v>125</v>
       </c>
@@ -3382,16 +3420,16 @@
       <c r="R58" s="20"/>
     </row>
     <row r="59" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="46"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="10" t="s">
         <v>125</v>
       </c>
@@ -3417,16 +3455,16 @@
       <c r="R59" s="20"/>
     </row>
     <row r="60" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="10" t="s">
         <v>125</v>
       </c>
@@ -3452,8 +3490,8 @@
       <c r="R60" s="20"/>
     </row>
     <row r="61" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="10" t="s">
         <v>113</v>
       </c>
@@ -3463,7 +3501,7 @@
       <c r="E61" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="47"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="10" t="s">
         <v>129</v>
       </c>
@@ -3489,7 +3527,7 @@
       <c r="R61" s="20"/>
     </row>
     <row r="62" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="46"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="17" t="s">
         <v>116</v>
       </c>
@@ -3500,7 +3538,7 @@
       <c r="E62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -3528,7 +3566,7 @@
       <c r="R62" s="20"/>
     </row>
     <row r="63" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="46"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="17" t="s">
         <v>68</v>
       </c>
@@ -3539,7 +3577,7 @@
       <c r="E63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="46"/>
+      <c r="F63" s="44"/>
       <c r="G63" s="10" t="s">
         <v>128</v>
       </c>
@@ -3565,7 +3603,7 @@
       <c r="R63" s="20"/>
     </row>
     <row r="64" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="46"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="17" t="s">
         <v>71</v>
       </c>
@@ -3576,7 +3614,7 @@
       <c r="E64" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="46"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="10" t="s">
         <v>128</v>
       </c>
@@ -3602,8 +3640,8 @@
       <c r="R64" s="20"/>
     </row>
     <row r="65" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -3615,7 +3653,7 @@
       <c r="E65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="46"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="10" t="s">
         <v>131</v>
       </c>
@@ -3641,8 +3679,8 @@
       <c r="R65" s="20"/>
     </row>
     <row r="66" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="57"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="17" t="s">
         <v>78</v>
       </c>
@@ -3652,7 +3690,7 @@
       <c r="E66" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="46"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="10" t="s">
         <v>131</v>
       </c>
@@ -3678,8 +3716,8 @@
       <c r="R66" s="20"/>
     </row>
     <row r="67" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="57"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="17" t="s">
         <v>81</v>
       </c>
@@ -3689,7 +3727,7 @@
       <c r="E67" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="46"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="10" t="s">
         <v>131</v>
       </c>
@@ -3715,8 +3753,8 @@
       <c r="R67" s="20"/>
     </row>
     <row r="68" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="17" t="s">
         <v>84</v>
       </c>
@@ -3726,7 +3764,7 @@
       <c r="E68" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="10" t="s">
         <v>131</v>
       </c>
@@ -3752,8 +3790,8 @@
       <c r="R68" s="20"/>
     </row>
     <row r="69" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="44"/>
+      <c r="B69" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="17" t="s">
@@ -3765,7 +3803,7 @@
       <c r="E69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="46"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="10" t="s">
         <v>128</v>
       </c>
@@ -3791,8 +3829,8 @@
       <c r="R69" s="20"/>
     </row>
     <row r="70" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="17" t="s">
         <v>91</v>
       </c>
@@ -3802,7 +3840,7 @@
       <c r="E70" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="10" t="s">
         <v>128</v>
       </c>
@@ -3828,8 +3866,8 @@
       <c r="R70" s="20"/>
     </row>
     <row r="71" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="44"/>
+      <c r="B71" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -3841,7 +3879,7 @@
       <c r="E71" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="10" t="s">
         <v>127</v>
       </c>
@@ -3867,8 +3905,8 @@
       <c r="R71" s="20"/>
     </row>
     <row r="72" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="57"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="10" t="s">
         <v>98</v>
       </c>
@@ -3878,7 +3916,7 @@
       <c r="E72" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="10" t="s">
         <v>127</v>
       </c>
@@ -3904,8 +3942,8 @@
       <c r="R72" s="20"/>
     </row>
     <row r="73" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="57"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="10" t="s">
         <v>101</v>
       </c>
@@ -3915,7 +3953,7 @@
       <c r="E73" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="10" t="s">
         <v>128</v>
       </c>
@@ -3941,9 +3979,9 @@
       <c r="R73" s="20"/>
     </row>
     <row r="74" spans="1:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="59" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -3952,7 +3990,7 @@
       <c r="E74" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="10" t="s">
         <v>127</v>
       </c>
@@ -3978,16 +4016,16 @@
       <c r="R74" s="20"/>
     </row>
     <row r="75" spans="1:18" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="46"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="46"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="10" t="s">
         <v>127</v>
       </c>
@@ -4013,16 +4051,16 @@
       <c r="R75" s="20"/>
     </row>
     <row r="76" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="46"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="44"/>
       <c r="D76" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="46"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="10" t="s">
         <v>127</v>
       </c>
@@ -4047,16 +4085,16 @@
       <c r="R76" s="20"/>
     </row>
     <row r="77" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="46"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="47"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="10" t="s">
         <v>127</v>
       </c>
@@ -4081,8 +4119,8 @@
       <c r="R77" s="20"/>
     </row>
     <row r="78" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="10" t="s">
         <v>113</v>
       </c>
@@ -4092,7 +4130,7 @@
       <c r="E78" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="47"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="10" t="s">
         <v>131</v>
       </c>
@@ -4178,15 +4216,15 @@
       <c r="R81" s="20"/>
     </row>
     <row r="82" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="63" t="s">
         <v>120</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10" t="s">
         <v>130</v>
@@ -4208,13 +4246,13 @@
       <c r="R82" s="20"/>
     </row>
     <row r="83" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="27"/>
       <c r="G83" s="10" t="s">
         <v>127</v>
@@ -4236,15 +4274,15 @@
       <c r="R83" s="20"/>
     </row>
     <row r="84" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="64" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="28"/>
       <c r="G84" s="10" t="s">
         <v>133</v>
@@ -4264,13 +4302,13 @@
       <c r="R84" s="20"/>
     </row>
     <row r="85" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="28"/>
       <c r="G85" s="10" t="s">
         <v>133</v>
@@ -4290,13 +4328,34 @@
       <c r="R85" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+  <mergeCells count="49">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="A4:A44"/>
+    <mergeCell ref="A46:A78"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="F46:F61"/>
     <mergeCell ref="F62:F78"/>
@@ -4313,31 +4372,12 @@
     <mergeCell ref="C38:C44"/>
     <mergeCell ref="C57:C60"/>
     <mergeCell ref="C74:C77"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A4:A44"/>
-    <mergeCell ref="A46:A78"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F2:R2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4349,7 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE2D2F7-F47B-49CA-98E5-C64035370E18}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
@@ -4371,44 +4411,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="36" t="s">
         <v>137</v>
       </c>
       <c r="H2" s="71"/>
@@ -4418,16 +4458,16 @@
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="51" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="31" t="s">
         <v>136</v>
       </c>
@@ -4455,16 +4495,16 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="57"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4473,7 +4513,7 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="48" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4495,21 +4535,21 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="4" t="s">
         <v>124</v>
       </c>
@@ -4529,19 +4569,19 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="58"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="4" t="s">
         <v>124</v>
       </c>
@@ -4561,12 +4601,12 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="57" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4575,7 +4615,7 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="10" t="s">
         <v>125</v>
       </c>
@@ -4595,19 +4635,19 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="58"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="10" t="s">
         <v>125</v>
       </c>
@@ -4627,19 +4667,19 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="58"/>
+      <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="10" t="s">
         <v>125</v>
       </c>
@@ -4659,19 +4699,19 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="10" t="s">
         <v>126</v>
       </c>
@@ -4691,19 +4731,19 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="58"/>
+      <c r="O10" s="53"/>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="10" t="s">
         <v>126</v>
       </c>
@@ -4723,19 +4763,19 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="58"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="10" t="s">
         <v>126</v>
       </c>
@@ -4755,11 +4795,11 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="58"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
@@ -4769,7 +4809,7 @@
       <c r="E13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="10" t="s">
         <v>126</v>
       </c>
@@ -4789,14 +4829,14 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="58"/>
+      <c r="O13" s="53"/>
     </row>
     <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4805,7 +4845,7 @@
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="48" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="29" t="s">
@@ -4827,19 +4867,19 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="58"/>
+      <c r="O14" s="53"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="29" t="s">
         <v>131</v>
       </c>
@@ -4859,19 +4899,19 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="58"/>
+      <c r="O15" s="53"/>
     </row>
     <row r="16" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="29" t="s">
         <v>131</v>
       </c>
@@ -4891,12 +4931,12 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="58"/>
+      <c r="O16" s="53"/>
     </row>
     <row r="17" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="57" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -4905,7 +4945,7 @@
       <c r="E17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="10" t="s">
         <v>127</v>
       </c>
@@ -4925,19 +4965,19 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="58"/>
+      <c r="O17" s="53"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="10" t="s">
         <v>127</v>
       </c>
@@ -4957,19 +4997,19 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="58"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="10" t="s">
         <v>127</v>
       </c>
@@ -4988,19 +5028,19 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="10" t="s">
         <v>127</v>
       </c>
@@ -5020,19 +5060,19 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="58"/>
+      <c r="O20" s="53"/>
     </row>
     <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="10" t="s">
         <v>127</v>
       </c>
@@ -5052,19 +5092,19 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="53"/>
     </row>
     <row r="22" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="57"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="10" t="s">
         <v>127</v>
       </c>
@@ -5084,11 +5124,11 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="58"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="1:15" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
@@ -5098,7 +5138,7 @@
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="50"/>
       <c r="G23" s="10" t="s">
         <v>128</v>
       </c>
@@ -5118,11 +5158,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="58"/>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5134,7 +5174,7 @@
       <c r="E24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -5161,9 +5201,9 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -5172,7 +5212,7 @@
       <c r="E25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="10" t="s">
         <v>129</v>
       </c>
@@ -5195,16 +5235,16 @@
       <c r="O25" s="72"/>
     </row>
     <row r="26" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="10" t="s">
         <v>129</v>
       </c>
@@ -5226,8 +5266,8 @@
       <c r="O26" s="72"/>
     </row>
     <row r="27" spans="1:15" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -5239,7 +5279,7 @@
       <c r="E27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -5264,9 +5304,9 @@
       <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -5275,7 +5315,7 @@
       <c r="E28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="10" t="s">
         <v>128</v>
       </c>
@@ -5298,16 +5338,16 @@
       <c r="O28" s="72"/>
     </row>
     <row r="29" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="47"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="10" t="s">
         <v>128</v>
       </c>
@@ -5330,18 +5370,18 @@
       <c r="O29" s="72"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -5366,16 +5406,16 @@
       <c r="O30" s="72"/>
     </row>
     <row r="31" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="62" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="10" t="s">
         <v>130</v>
       </c>
@@ -5398,14 +5438,14 @@
       <c r="O31" s="72"/>
     </row>
     <row r="32" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="63"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="10" t="s">
         <v>130</v>
       </c>
@@ -5428,16 +5468,16 @@
       <c r="O32" s="72"/>
     </row>
     <row r="33" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="10" t="s">
         <v>130</v>
       </c>
@@ -5460,16 +5500,16 @@
       <c r="O33" s="72"/>
     </row>
     <row r="34" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="46"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="10" t="s">
         <v>129</v>
       </c>
@@ -5492,16 +5532,16 @@
       <c r="O34" s="72"/>
     </row>
     <row r="35" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="46"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="10" t="s">
         <v>129</v>
       </c>
@@ -5524,16 +5564,16 @@
       <c r="O35" s="72"/>
     </row>
     <row r="36" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="10" t="s">
         <v>124</v>
       </c>
@@ -5556,16 +5596,16 @@
       <c r="O36" s="72"/>
     </row>
     <row r="37" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="10" t="s">
         <v>126</v>
       </c>
@@ -5587,18 +5627,18 @@
       <c r="O37" s="72"/>
     </row>
     <row r="38" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="59"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -5623,16 +5663,16 @@
       <c r="O38" s="72"/>
     </row>
     <row r="39" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="62" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="10" t="s">
         <v>127</v>
       </c>
@@ -5655,14 +5695,14 @@
       <c r="O39" s="72"/>
     </row>
     <row r="40" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="63"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="10" t="s">
         <v>127</v>
       </c>
@@ -5685,16 +5725,16 @@
       <c r="O40" s="72"/>
     </row>
     <row r="41" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="46"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="10" t="s">
         <v>131</v>
       </c>
@@ -5717,16 +5757,16 @@
       <c r="O41" s="72"/>
     </row>
     <row r="42" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="10" t="s">
         <v>131</v>
       </c>
@@ -5749,16 +5789,16 @@
       <c r="O42" s="72"/>
     </row>
     <row r="43" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="46"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="29" t="s">
         <v>131</v>
       </c>
@@ -5781,16 +5821,16 @@
       <c r="O43" s="72"/>
     </row>
     <row r="44" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="10" t="s">
         <v>131</v>
       </c>
@@ -5830,7 +5870,7 @@
       <c r="O45" s="72"/>
     </row>
     <row r="46" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="62" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -5843,7 +5883,7 @@
       <c r="E46" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -5868,7 +5908,7 @@
       <c r="O46" s="72"/>
     </row>
     <row r="47" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="17" t="s">
         <v>71</v>
       </c>
@@ -5879,7 +5919,7 @@
       <c r="E47" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="10" t="s">
         <v>124</v>
       </c>
@@ -5902,8 +5942,8 @@
       <c r="O47" s="72"/>
     </row>
     <row r="48" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -5915,7 +5955,7 @@
       <c r="E48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="10" t="s">
         <v>129</v>
       </c>
@@ -5938,8 +5978,8 @@
       <c r="O48" s="72"/>
     </row>
     <row r="49" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="17" t="s">
         <v>78</v>
       </c>
@@ -5949,7 +5989,7 @@
       <c r="E49" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="44"/>
       <c r="G49" s="10" t="s">
         <v>129</v>
       </c>
@@ -5972,8 +6012,8 @@
       <c r="O49" s="72"/>
     </row>
     <row r="50" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="17" t="s">
         <v>81</v>
       </c>
@@ -5983,7 +6023,7 @@
       <c r="E50" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="10" t="s">
         <v>129</v>
       </c>
@@ -6006,8 +6046,8 @@
       <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="57"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="17" t="s">
         <v>84</v>
       </c>
@@ -6017,7 +6057,7 @@
       <c r="E51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="10" t="s">
         <v>125</v>
       </c>
@@ -6040,8 +6080,8 @@
       <c r="O51" s="72"/>
     </row>
     <row r="52" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -6053,7 +6093,7 @@
       <c r="E52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="10" t="s">
         <v>131</v>
       </c>
@@ -6076,8 +6116,8 @@
       <c r="O52" s="72"/>
     </row>
     <row r="53" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="17" t="s">
         <v>91</v>
       </c>
@@ -6087,7 +6127,7 @@
       <c r="E53" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="10" t="s">
         <v>131</v>
       </c>
@@ -6110,8 +6150,8 @@
       <c r="O53" s="72"/>
     </row>
     <row r="54" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="46"/>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -6123,7 +6163,7 @@
       <c r="E54" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="46"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="10" t="s">
         <v>130</v>
       </c>
@@ -6146,8 +6186,8 @@
       <c r="O54" s="72"/>
     </row>
     <row r="55" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="46"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="10" t="s">
         <v>98</v>
       </c>
@@ -6157,7 +6197,7 @@
       <c r="E55" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="10" t="s">
         <v>130</v>
       </c>
@@ -6180,8 +6220,8 @@
       <c r="O55" s="72"/>
     </row>
     <row r="56" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="57"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="10" t="s">
         <v>101</v>
       </c>
@@ -6191,7 +6231,7 @@
       <c r="E56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="10" t="s">
         <v>130</v>
       </c>
@@ -6214,9 +6254,9 @@
       <c r="O56" s="72"/>
     </row>
     <row r="57" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="46"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="59" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -6225,7 +6265,7 @@
       <c r="E57" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="10" t="s">
         <v>125</v>
       </c>
@@ -6248,16 +6288,16 @@
       <c r="O57" s="72"/>
     </row>
     <row r="58" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="46"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="46"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="10" t="s">
         <v>125</v>
       </c>
@@ -6280,16 +6320,16 @@
       <c r="O58" s="72"/>
     </row>
     <row r="59" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="46"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="10" t="s">
         <v>125</v>
       </c>
@@ -6312,16 +6352,16 @@
       <c r="O59" s="72"/>
     </row>
     <row r="60" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="10" t="s">
         <v>125</v>
       </c>
@@ -6344,8 +6384,8 @@
       <c r="O60" s="72"/>
     </row>
     <row r="61" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="57"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="10" t="s">
         <v>113</v>
       </c>
@@ -6355,7 +6395,7 @@
       <c r="E61" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="47"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="10" t="s">
         <v>129</v>
       </c>
@@ -6378,7 +6418,7 @@
       <c r="O61" s="72"/>
     </row>
     <row r="62" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="46"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="17" t="s">
         <v>116</v>
       </c>
@@ -6389,7 +6429,7 @@
       <c r="E62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="43" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -6414,7 +6454,7 @@
       <c r="O62" s="72"/>
     </row>
     <row r="63" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="46"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="17" t="s">
         <v>68</v>
       </c>
@@ -6425,7 +6465,7 @@
       <c r="E63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="46"/>
+      <c r="F63" s="44"/>
       <c r="G63" s="10" t="s">
         <v>128</v>
       </c>
@@ -6448,7 +6488,7 @@
       <c r="O63" s="72"/>
     </row>
     <row r="64" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="46"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="17" t="s">
         <v>71</v>
       </c>
@@ -6459,7 +6499,7 @@
       <c r="E64" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="46"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="10" t="s">
         <v>128</v>
       </c>
@@ -6482,8 +6522,8 @@
       <c r="O64" s="72"/>
     </row>
     <row r="65" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -6495,7 +6535,7 @@
       <c r="E65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="46"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="10" t="s">
         <v>131</v>
       </c>
@@ -6518,8 +6558,8 @@
       <c r="O65" s="72"/>
     </row>
     <row r="66" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="57"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="17" t="s">
         <v>78</v>
       </c>
@@ -6529,7 +6569,7 @@
       <c r="E66" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="46"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="10" t="s">
         <v>131</v>
       </c>
@@ -6552,8 +6592,8 @@
       <c r="O66" s="72"/>
     </row>
     <row r="67" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="57"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="17" t="s">
         <v>81</v>
       </c>
@@ -6563,7 +6603,7 @@
       <c r="E67" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="46"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="10" t="s">
         <v>131</v>
       </c>
@@ -6586,8 +6626,8 @@
       <c r="O67" s="72"/>
     </row>
     <row r="68" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="17" t="s">
         <v>84</v>
       </c>
@@ -6597,7 +6637,7 @@
       <c r="E68" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="10" t="s">
         <v>131</v>
       </c>
@@ -6620,8 +6660,8 @@
       <c r="O68" s="72"/>
     </row>
     <row r="69" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="44"/>
+      <c r="B69" s="52" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="17" t="s">
@@ -6633,7 +6673,7 @@
       <c r="E69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="46"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="10" t="s">
         <v>128</v>
       </c>
@@ -6656,8 +6696,8 @@
       <c r="O69" s="72"/>
     </row>
     <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="17" t="s">
         <v>91</v>
       </c>
@@ -6667,7 +6707,7 @@
       <c r="E70" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="10" t="s">
         <v>128</v>
       </c>
@@ -6690,8 +6730,8 @@
       <c r="O70" s="72"/>
     </row>
     <row r="71" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="44"/>
+      <c r="B71" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -6703,7 +6743,7 @@
       <c r="E71" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="10" t="s">
         <v>127</v>
       </c>
@@ -6726,8 +6766,8 @@
       <c r="O71" s="72"/>
     </row>
     <row r="72" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="57"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="10" t="s">
         <v>98</v>
       </c>
@@ -6737,7 +6777,7 @@
       <c r="E72" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="10" t="s">
         <v>127</v>
       </c>
@@ -6760,8 +6800,8 @@
       <c r="O72" s="72"/>
     </row>
     <row r="73" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="57"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="10" t="s">
         <v>101</v>
       </c>
@@ -6771,7 +6811,7 @@
       <c r="E73" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="10" t="s">
         <v>128</v>
       </c>
@@ -6794,9 +6834,9 @@
       <c r="O73" s="72"/>
     </row>
     <row r="74" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="59" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -6805,7 +6845,7 @@
       <c r="E74" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="44"/>
       <c r="G74" s="10" t="s">
         <v>127</v>
       </c>
@@ -6828,16 +6868,16 @@
       <c r="O74" s="72"/>
     </row>
     <row r="75" spans="1:15" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="46"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="46"/>
+      <c r="F75" s="44"/>
       <c r="G75" s="10" t="s">
         <v>127</v>
       </c>
@@ -6860,16 +6900,16 @@
       <c r="O75" s="72"/>
     </row>
     <row r="76" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="46"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="44"/>
       <c r="D76" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="46"/>
+      <c r="F76" s="44"/>
       <c r="G76" s="10" t="s">
         <v>127</v>
       </c>
@@ -6891,16 +6931,16 @@
       <c r="O76" s="72"/>
     </row>
     <row r="77" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="46"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="47"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="11" t="s">
         <v>111</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="10" t="s">
         <v>127</v>
       </c>
@@ -6922,8 +6962,8 @@
       <c r="O77" s="72"/>
     </row>
     <row r="78" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="10" t="s">
         <v>113</v>
       </c>
@@ -6933,7 +6973,7 @@
       <c r="E78" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="47"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="10" t="s">
         <v>131</v>
       </c>
@@ -7007,15 +7047,15 @@
       <c r="O81" s="20"/>
     </row>
     <row r="82" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="63" t="s">
         <v>120</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10" t="s">
         <v>130</v>
@@ -7034,13 +7074,13 @@
       <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="27"/>
       <c r="G83" s="10" t="s">
         <v>127</v>
@@ -7059,15 +7099,15 @@
       <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="64" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="28"/>
       <c r="G84" s="10" t="s">
         <v>133</v>
@@ -7084,13 +7124,13 @@
       <c r="O84" s="20"/>
     </row>
     <row r="85" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="28"/>
       <c r="G85" s="10" t="s">
         <v>133</v>
@@ -7108,12 +7148,34 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O23"/>
+    <mergeCell ref="O24:O78"/>
+    <mergeCell ref="F62:F78"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A46:A78"/>
+    <mergeCell ref="F46:F61"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="F30:F37"/>
@@ -7130,34 +7192,12 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A46:A78"/>
-    <mergeCell ref="F46:F61"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O23"/>
-    <mergeCell ref="O24:O78"/>
-    <mergeCell ref="F62:F78"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/小程序开发任务清单.xlsx
+++ b/public/小程序开发任务清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personalDev\excelToTable\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B99896-69F8-4572-B942-CDEAEA27F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A973A030-C062-423C-9CCE-47623D39C19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小程序任务分解" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="149">
   <si>
     <t>应用</t>
   </si>
@@ -487,11 +487,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>行列合并</t>
+    <t>合并两行三列</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>地方</t>
+    <t>合并两行两列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并三行两列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并三行三列</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -763,11 +779,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,9 +820,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +890,138 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,115 +1040,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1292,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1318,70 +1376,70 @@
     <col min="17" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42"/>
-    </row>
-    <row r="2" spans="1:18" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
+    </row>
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-    </row>
-    <row r="3" spans="1:18" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="31" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1411,7 +1469,7 @@
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1419,13 +1477,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1434,7 +1492,7 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="77" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1458,22 +1516,22 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="34">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="33">
         <v>44835</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="4" t="s">
         <v>124</v>
       </c>
@@ -1491,28 +1549,28 @@
         <v>3</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="66"/>
+      <c r="M5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="44"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="34">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="33">
         <v>44836</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="4" t="s">
         <v>124</v>
       </c>
@@ -1529,30 +1587,30 @@
         <f>NETWORKDAYS.INTL(H6,I6,5,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="34">
+      <c r="L6" s="18"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="33">
         <v>44837</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H7" s="7">
@@ -1561,35 +1619,37 @@
       <c r="I7" s="7">
         <v>44834</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>24</v>
       </c>
       <c r="K7" s="4">
         <f>NETWORKDAYS(H7,I7)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="34">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="33">
         <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="7">
@@ -1598,37 +1658,37 @@
       <c r="I8" s="7">
         <v>44844</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>24</v>
       </c>
       <c r="K8" s="4">
         <f>NETWORKDAYS.INTL(H8,I8,5,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="34">
+      <c r="L8" s="19"/>
+      <c r="M8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="33">
         <v>44839</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H9" s="7">
@@ -1637,35 +1697,35 @@
       <c r="I9" s="7">
         <v>44847</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>24</v>
       </c>
       <c r="K9" s="4">
         <f>NETWORKDAYS(H9,I9)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="34">
+      <c r="L9" s="19"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="33">
         <v>44840</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="58"/>
+      <c r="G10" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H10" s="7">
@@ -1674,35 +1734,35 @@
       <c r="I10" s="7">
         <v>44832</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>16</v>
       </c>
       <c r="K10" s="4">
         <f>NETWORKDAYS(H10,I10)</f>
         <v>2</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="34">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="33">
         <v>44841</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="58"/>
+      <c r="G11" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H11" s="7">
@@ -1711,33 +1771,35 @@
       <c r="I11" s="7">
         <v>44834</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>16</v>
       </c>
       <c r="K11" s="4">
         <f>NETWORKDAYS(H11,I11)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H12" s="7">
@@ -1746,35 +1808,35 @@
       <c r="I12" s="7">
         <v>44844</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>24</v>
       </c>
       <c r="K12" s="4">
         <f>NETWORKDAYS.INTL(H12,I12,5,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="59"/>
+      <c r="G13" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="7">
@@ -1783,27 +1845,27 @@
       <c r="I13" s="7">
         <v>44848</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>24</v>
       </c>
       <c r="K13" s="4">
         <f>NETWORKDAYS(H13,I13)</f>
         <v>3</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1812,10 +1874,10 @@
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="7">
@@ -1824,33 +1886,33 @@
       <c r="I14" s="7">
         <v>44843</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>24</v>
       </c>
       <c r="K14" s="4">
         <f>NETWORKDAYS.INTL(H14,I14,5,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H15" s="7">
@@ -1871,21 +1933,21 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="21"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="7">
@@ -1894,35 +1956,35 @@
       <c r="I16" s="7">
         <v>44847</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>16</v>
       </c>
       <c r="K16" s="4">
         <f>NETWORKDAYS(H16,I16)</f>
         <v>2</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="58"/>
+      <c r="G17" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H17" s="7">
@@ -1931,33 +1993,35 @@
       <c r="I17" s="7">
         <v>44834</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>24</v>
       </c>
       <c r="K17" s="4">
         <f>NETWORKDAYS(H17,I17)</f>
         <v>3</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="20"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="49"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="58"/>
+      <c r="G18" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H18" s="7">
@@ -1966,33 +2030,33 @@
       <c r="I18" s="7">
         <v>44843</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>16</v>
       </c>
       <c r="K18" s="4">
         <f>NETWORKDAYS.INTL(H18,I18,5,R4:R10)</f>
         <v>2</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="58"/>
+      <c r="G19" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H19" s="7">
@@ -2001,32 +2065,32 @@
       <c r="I19" s="7">
         <v>44845</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>16</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="20"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="11" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H20" s="7">
@@ -2035,33 +2099,33 @@
       <c r="I20" s="7">
         <v>44847</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>8</v>
       </c>
       <c r="K20" s="4">
         <f>NETWORKDAYS(H20,I20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="20"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H21" s="7">
@@ -2070,33 +2134,33 @@
       <c r="I21" s="7">
         <v>44846</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>8</v>
       </c>
       <c r="K21" s="4">
         <f>NETWORKDAYS(H21,I21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="7">
@@ -2105,35 +2169,35 @@
       <c r="I22" s="7">
         <v>44848</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>8</v>
       </c>
       <c r="K22" s="4">
         <f>NETWORKDAYS(H22,I22)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="20"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H23" s="7">
@@ -2142,39 +2206,39 @@
       <c r="I23" s="7">
         <v>44852</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>24</v>
       </c>
       <c r="K23" s="4">
         <f>NETWORKDAYS(H23,I23)</f>
         <v>3</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="20"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="7">
@@ -2183,35 +2247,37 @@
       <c r="I24" s="7">
         <v>44834</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>24</v>
       </c>
       <c r="K24" s="4">
         <f>NETWORKDAYS(H24,I24)</f>
         <v>3</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="20"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H25" s="7">
@@ -2220,33 +2286,33 @@
       <c r="I25" s="7">
         <v>44844</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>24</v>
       </c>
       <c r="K25" s="4">
         <f>NETWORKDAYS.INTL(H25,I25,5,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="13" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="61"/>
+      <c r="G26" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="7">
@@ -2255,38 +2321,38 @@
       <c r="I26" s="7">
         <v>44851</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>8</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="20"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H27" s="7">
@@ -2295,35 +2361,35 @@
       <c r="I27" s="7">
         <v>44844</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>24</v>
       </c>
       <c r="K27" s="4">
         <f>NETWORKDAYS.INTL(H27,I27,5,R4:R10)</f>
         <v>2</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="20"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H28" s="7">
@@ -2332,33 +2398,33 @@
       <c r="I28" s="7">
         <v>44846</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>24</v>
       </c>
       <c r="K28" s="4">
         <f>NETWORKDAYS(H28,I28)</f>
         <v>2</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="20"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="13" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H29" s="7">
@@ -2367,37 +2433,37 @@
       <c r="I29" s="7">
         <v>44847</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>8</v>
       </c>
       <c r="K29" s="4">
         <f>NETWORKDAYS(H29,I29)</f>
         <v>1</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="20"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="7">
@@ -2406,33 +2472,33 @@
       <c r="I30" s="7">
         <v>44834</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>16</v>
       </c>
       <c r="K30" s="4">
         <f>NETWORKDAYS(H30,I30)</f>
         <v>2</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="20"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="46" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="61"/>
+      <c r="G31" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H31" s="7">
@@ -2441,31 +2507,31 @@
       <c r="I31" s="7">
         <v>44843</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>16</v>
       </c>
       <c r="K31" s="4">
         <f>NETWORKDAYS.INTL(H31,I31,5,R4:R10)</f>
         <v>2</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="20"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="12" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H32" s="7">
@@ -2474,33 +2540,33 @@
       <c r="I32" s="7">
         <v>44844</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>8</v>
       </c>
       <c r="K32" s="4">
         <f>NETWORKDAYS(H32,I32)</f>
         <v>1</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="20"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="7">
@@ -2509,33 +2575,33 @@
       <c r="I33" s="7">
         <v>44847</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>24</v>
       </c>
       <c r="K33" s="4">
         <f>NETWORKDAYS.INTL(H33,I33,7,R4:R10)</f>
         <v>3</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="20"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="49"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="61"/>
+      <c r="G34" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H34" s="7">
@@ -2544,33 +2610,33 @@
       <c r="I34" s="7">
         <v>44845</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>8</v>
       </c>
       <c r="K34" s="4">
         <f>NETWORKDAYS.INTL(H34,I34,5,R4:R10)</f>
         <v>1</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="20"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="11" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H35" s="7">
@@ -2579,33 +2645,33 @@
       <c r="I35" s="7">
         <v>44848</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>24</v>
       </c>
       <c r="K35" s="4">
         <f>NETWORKDAYS(H35,I35)</f>
         <v>3</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="20"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="19"/>
     </row>
     <row r="36" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="10" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="7">
@@ -2614,33 +2680,33 @@
       <c r="I36" s="7">
         <v>44846</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>24</v>
       </c>
       <c r="K36" s="4">
         <f>NETWORKDAYS(H36,I36)</f>
         <v>3</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="20"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="11" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="62"/>
+      <c r="G37" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H37" s="7">
@@ -2649,36 +2715,36 @@
       <c r="I37" s="7">
         <v>44845</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>8</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="20"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="49"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="72"/>
+      <c r="D38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H38" s="7">
@@ -2687,33 +2753,33 @@
       <c r="I38" s="7">
         <v>44842</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>8</v>
       </c>
       <c r="K38" s="4">
         <f>NETWORKDAYS.INTL(H38,I38,5,R4:R10)</f>
         <v>1</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="20"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="19"/>
     </row>
     <row r="39" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="46" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="61"/>
+      <c r="G39" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H39" s="7">
@@ -2722,31 +2788,31 @@
       <c r="I39" s="7">
         <v>44851</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>8</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" ref="K39:K44" si="1">NETWORKDAYS(H39,I39)</f>
         <v>1</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="20"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="19"/>
     </row>
     <row r="40" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="12" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H40" s="7">
@@ -2755,33 +2821,33 @@
       <c r="I40" s="7">
         <v>44852</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>8</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="20"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="11" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="10" t="s">
+      <c r="F41" s="61"/>
+      <c r="G41" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H41" s="7">
@@ -2790,33 +2856,33 @@
       <c r="I41" s="7">
         <v>44852</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>16</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="20"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H42" s="7">
@@ -2825,33 +2891,33 @@
       <c r="I42" s="7">
         <v>44847</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>8</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="20"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="11" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="61"/>
+      <c r="G43" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H43" s="7">
@@ -2860,33 +2926,33 @@
       <c r="I43" s="7">
         <v>44848</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>8</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="20"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="10" t="s">
+      <c r="F44" s="62"/>
+      <c r="G44" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H44" s="7">
@@ -2895,60 +2961,77 @@
       <c r="I44" s="7">
         <v>44854</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>16</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="20"/>
-    </row>
-    <row r="45" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="20"/>
-    </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62" t="s">
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="19"/>
+    </row>
+    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="11" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F45" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="H45" s="7">
+        <v>44824</v>
+      </c>
+      <c r="I45" s="7">
+        <v>44825</v>
+      </c>
+      <c r="J45" s="9">
+        <v>16</v>
+      </c>
+      <c r="K45" s="4">
+        <f>NETWORKDAYS(H45,I45)</f>
+        <v>2</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="61"/>
+      <c r="B46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H46" s="7">
         <v>44824</v>
@@ -2956,36 +3039,38 @@
       <c r="I46" s="7">
         <v>44825</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>16</v>
       </c>
       <c r="K46" s="4">
         <f>NETWORKDAYS(H46,I46)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="20"/>
-    </row>
-    <row r="47" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
-      <c r="B47" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="11" t="s">
-        <v>72</v>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="61"/>
+      <c r="B47" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="10" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="H47" s="7">
         <v>44824</v>
@@ -2993,630 +3078,630 @@
       <c r="I47" s="7">
         <v>44825</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>16</v>
       </c>
       <c r="K47" s="4">
         <f>NETWORKDAYS(H47,I47)</f>
         <v>2</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="20"/>
-    </row>
-    <row r="48" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
-      <c r="B48" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="10" t="s">
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="19"/>
+    </row>
+    <row r="48" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="61"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H48" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I48" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J48" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J48" s="9">
         <v>16</v>
       </c>
       <c r="K48" s="4">
-        <f>NETWORKDAYS(H48,I48)</f>
+        <f>NETWORKDAYS(H47,I47)</f>
         <v>2</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="20"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="19"/>
     </row>
     <row r="49" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="10" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H49" s="7">
-        <v>44826</v>
+        <v>44852</v>
       </c>
       <c r="I49" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J49" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J49" s="9">
         <v>16</v>
       </c>
       <c r="K49" s="4">
         <f>NETWORKDAYS(H48,I48)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="20"/>
-    </row>
-    <row r="50" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>82</v>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="61"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="10" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="H50" s="7">
-        <v>44852</v>
+        <v>44830</v>
       </c>
       <c r="I50" s="7">
-        <v>44853</v>
-      </c>
-      <c r="J50" s="10">
+        <v>44831</v>
+      </c>
+      <c r="J50" s="9">
         <v>16</v>
       </c>
       <c r="K50" s="4">
-        <f>NETWORKDAYS(H49,I49)</f>
+        <f>NETWORKDAYS(H50,I50)</f>
         <v>2</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="20"/>
-    </row>
-    <row r="51" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="10" t="s">
-        <v>125</v>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="61"/>
+      <c r="B51" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H51" s="7">
-        <v>44830</v>
+        <v>44824</v>
       </c>
       <c r="I51" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J51" s="10">
-        <v>16</v>
+        <v>44826</v>
+      </c>
+      <c r="J51" s="9">
+        <v>24</v>
       </c>
       <c r="K51" s="4">
         <f>NETWORKDAYS(H51,I51)</f>
-        <v>2</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="20"/>
-    </row>
-    <row r="52" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
-      <c r="B52" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="61"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H52" s="7">
-        <v>44824</v>
+        <v>44827</v>
       </c>
       <c r="I52" s="7">
-        <v>44826</v>
-      </c>
-      <c r="J52" s="10">
-        <v>24</v>
+        <v>44830</v>
+      </c>
+      <c r="J52" s="9">
+        <v>16</v>
       </c>
       <c r="K52" s="4">
         <f>NETWORKDAYS(H52,I52)</f>
-        <v>3</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="20"/>
-    </row>
-    <row r="53" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="10" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="61"/>
+      <c r="B53" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="H53" s="7">
-        <v>44827</v>
+        <v>44824</v>
       </c>
       <c r="I53" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J53" s="10">
+        <v>44825</v>
+      </c>
+      <c r="J53" s="9">
         <v>16</v>
       </c>
       <c r="K53" s="4">
         <f>NETWORKDAYS(H53,I53)</f>
         <v>2</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="20"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="19"/>
     </row>
     <row r="54" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
-      <c r="B54" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="10" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H54" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I54" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J54" s="10">
-        <v>16</v>
+        <v>44830</v>
+      </c>
+      <c r="J54" s="9">
+        <v>24</v>
       </c>
       <c r="K54" s="4">
         <f>NETWORKDAYS(H54,I54)</f>
+        <v>3</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="61"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="61"/>
+      <c r="G55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="7">
+        <v>44831</v>
+      </c>
+      <c r="I55" s="7">
+        <v>44833</v>
+      </c>
+      <c r="J55" s="9">
+        <v>24</v>
+      </c>
+      <c r="K55" s="4">
+        <f>NETWORKDAYS.INTL(H55,I55,7,R4:R10)</f>
+        <v>3</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="61"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="7">
+        <v>44826</v>
+      </c>
+      <c r="I56" s="7">
+        <v>44827</v>
+      </c>
+      <c r="J56" s="9">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" ref="K56:K66" si="2">NETWORKDAYS(H56,I56)</f>
         <v>2</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="20"/>
-    </row>
-    <row r="55" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="7">
-        <v>44826</v>
-      </c>
-      <c r="I55" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J55" s="10">
-        <v>24</v>
-      </c>
-      <c r="K55" s="4">
-        <f>NETWORKDAYS(H55,I55)</f>
-        <v>3</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="20"/>
-    </row>
-    <row r="56" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" s="7">
-        <v>44831</v>
-      </c>
-      <c r="I56" s="7">
-        <v>44833</v>
-      </c>
-      <c r="J56" s="10">
-        <v>24</v>
-      </c>
-      <c r="K56" s="4">
-        <f>NETWORKDAYS.INTL(H56,I56,7,R4:R10)</f>
-        <v>3</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="20"/>
-    </row>
-    <row r="57" spans="1:18" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="10" t="s">
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="61"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H57" s="7">
-        <v>44826</v>
+        <v>44848</v>
       </c>
       <c r="I57" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J57" s="10">
+        <v>44851</v>
+      </c>
+      <c r="J57" s="9">
         <v>16</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" ref="K57:K67" si="2">NETWORKDAYS(H57,I57)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="20"/>
-    </row>
-    <row r="58" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="10" t="s">
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="61"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H58" s="7">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="I58" s="7">
-        <v>44851</v>
-      </c>
-      <c r="J58" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J58" s="9">
         <v>16</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="20"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="19"/>
     </row>
     <row r="59" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="10" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="61"/>
+      <c r="G59" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H59" s="7">
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="I59" s="7">
-        <v>44853</v>
-      </c>
-      <c r="J59" s="10">
-        <v>16</v>
+        <v>44854</v>
+      </c>
+      <c r="J59" s="9">
+        <v>8</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="19"/>
     </row>
     <row r="60" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="10" t="s">
-        <v>125</v>
+      <c r="A60" s="61"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="62"/>
+      <c r="G60" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="H60" s="7">
-        <v>44854</v>
+        <v>44830</v>
       </c>
       <c r="I60" s="7">
-        <v>44854</v>
-      </c>
-      <c r="J60" s="10">
-        <v>8</v>
+        <v>44831</v>
+      </c>
+      <c r="J60" s="9">
+        <v>16</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="19"/>
     </row>
     <row r="61" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="10" t="s">
-        <v>129</v>
+      <c r="A61" s="61"/>
+      <c r="B61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H61" s="7">
-        <v>44830</v>
+        <v>44819</v>
       </c>
       <c r="I61" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J61" s="10">
-        <v>16</v>
+        <v>44823</v>
+      </c>
+      <c r="J61" s="9">
+        <v>24</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
-      <c r="B62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>127</v>
+      <c r="A62" s="61"/>
+      <c r="B62" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="61"/>
+      <c r="G62" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H62" s="7">
-        <v>44819</v>
+        <v>44833</v>
       </c>
       <c r="I62" s="7">
-        <v>44823</v>
-      </c>
-      <c r="J62" s="10">
-        <v>24</v>
+        <v>44834</v>
+      </c>
+      <c r="J62" s="9">
+        <v>16</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="19"/>
     </row>
     <row r="63" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
-      <c r="B63" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="10" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="61"/>
+      <c r="G63" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H63" s="7">
-        <v>44833</v>
+        <v>44824</v>
       </c>
       <c r="I63" s="7">
-        <v>44834</v>
-      </c>
-      <c r="J63" s="10">
+        <v>44825</v>
+      </c>
+      <c r="J63" s="9">
         <v>16</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="20"/>
-    </row>
-    <row r="64" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-      <c r="B64" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="11" t="s">
-        <v>72</v>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="19"/>
+    </row>
+    <row r="64" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="61"/>
+      <c r="B64" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="10" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="F64" s="61"/>
+      <c r="G64" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H64" s="7">
         <v>44824</v>
@@ -3624,610 +3709,599 @@
       <c r="I64" s="7">
         <v>44825</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>16</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="20"/>
-    </row>
-    <row r="65" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-      <c r="B65" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="10" t="s">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="19"/>
+    </row>
+    <row r="65" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="61"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="61"/>
+      <c r="G65" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H65" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I65" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J65" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J65" s="9">
         <v>16</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="20"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="19"/>
     </row>
     <row r="66" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="44"/>
-      <c r="G66" s="10" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="61"/>
+      <c r="G66" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H66" s="7">
-        <v>44826</v>
+        <v>44855</v>
       </c>
       <c r="I66" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J66" s="10">
-        <v>16</v>
+        <v>44855</v>
+      </c>
+      <c r="J66" s="9">
+        <v>8</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="19"/>
+    </row>
+    <row r="67" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="61"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="61"/>
+      <c r="G67" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="7">
+        <v>44830</v>
+      </c>
+      <c r="I67" s="7">
+        <v>44831</v>
+      </c>
+      <c r="J67" s="9">
+        <v>16</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" ref="K67:K73" si="3">NETWORKDAYS(H67,I67)</f>
         <v>2</v>
       </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="20"/>
-    </row>
-    <row r="67" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="44"/>
-      <c r="G67" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" s="7">
-        <v>44855</v>
-      </c>
-      <c r="I67" s="7">
-        <v>44855</v>
-      </c>
-      <c r="J67" s="10">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="19"/>
+    </row>
+    <row r="68" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="61"/>
+      <c r="B68" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="61"/>
+      <c r="G68" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" s="7">
+        <v>44826</v>
+      </c>
+      <c r="I68" s="7">
+        <v>44827</v>
+      </c>
+      <c r="J68" s="9">
+        <v>16</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="19"/>
+    </row>
+    <row r="69" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="61"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="61"/>
+      <c r="G69" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="7">
+        <v>44830</v>
+      </c>
+      <c r="I69" s="7">
+        <v>44830</v>
+      </c>
+      <c r="J69" s="9">
         <v>8</v>
-      </c>
-      <c r="K67" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="20"/>
-    </row>
-    <row r="68" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" s="7">
-        <v>44830</v>
-      </c>
-      <c r="I68" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J68" s="10">
-        <v>16</v>
-      </c>
-      <c r="K68" s="4">
-        <f t="shared" ref="K68:K74" si="3">NETWORKDAYS(H68,I68)</f>
-        <v>2</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="20"/>
-    </row>
-    <row r="69" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="44"/>
-      <c r="G69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" s="7">
-        <v>44826</v>
-      </c>
-      <c r="I69" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J69" s="10">
-        <v>16</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="20"/>
-    </row>
-    <row r="70" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="10" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="19"/>
+    </row>
+    <row r="70" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="61"/>
+      <c r="B70" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="61"/>
+      <c r="G70" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H70" s="7">
-        <v>44830</v>
+        <v>44824</v>
       </c>
       <c r="I70" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J70" s="10">
-        <v>8</v>
+        <v>44825</v>
+      </c>
+      <c r="J70" s="9">
+        <v>16</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="20"/>
-    </row>
-    <row r="71" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
-      <c r="B71" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="44"/>
-      <c r="G71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="19"/>
+    </row>
+    <row r="71" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="61"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="61"/>
+      <c r="G71" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H71" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I71" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J71" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J71" s="9">
         <v>16</v>
       </c>
       <c r="K71" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="20"/>
-    </row>
-    <row r="72" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="44"/>
-      <c r="G72" s="10" t="s">
-        <v>127</v>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="19"/>
+    </row>
+    <row r="72" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="61"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="61"/>
+      <c r="G72" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H72" s="7">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="I72" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J72" s="10">
+        <v>44832</v>
+      </c>
+      <c r="J72" s="9">
         <v>16</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="20"/>
-    </row>
-    <row r="73" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>102</v>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="19"/>
+    </row>
+    <row r="73" spans="1:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="61"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="44"/>
-      <c r="G73" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="F73" s="61"/>
+      <c r="G73" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H73" s="7">
+        <v>44830</v>
+      </c>
+      <c r="I73" s="7">
         <v>44831</v>
       </c>
-      <c r="I73" s="7">
-        <v>44832</v>
-      </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>16</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="20"/>
-    </row>
-    <row r="74" spans="1:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="10" t="s">
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="19"/>
+    </row>
+    <row r="74" spans="1:18" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="61"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="61"/>
+      <c r="G74" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H74" s="7">
-        <v>44830</v>
+        <v>44853</v>
       </c>
       <c r="I74" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J74" s="10">
+        <v>44854</v>
+      </c>
+      <c r="J74" s="9">
         <v>16</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="3"/>
+        <f>NETWORKDAYS(H74,I74)</f>
         <v>2</v>
       </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="20"/>
-    </row>
-    <row r="75" spans="1:18" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="10" t="s">
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="19"/>
+    </row>
+    <row r="75" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="61"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="61"/>
+      <c r="G75" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H75" s="7">
-        <v>44853</v>
+        <v>44855</v>
       </c>
       <c r="I75" s="7">
-        <v>44854</v>
-      </c>
-      <c r="J75" s="10">
-        <v>16</v>
+        <v>44855</v>
+      </c>
+      <c r="J75" s="9">
+        <v>8</v>
       </c>
       <c r="K75" s="4">
-        <f>NETWORKDAYS(H75,I75)</f>
-        <v>2</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="19"/>
     </row>
     <row r="76" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="10" t="s">
+      <c r="A76" s="61"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="61"/>
+      <c r="G76" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H76" s="7">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="I76" s="7">
-        <v>44855</v>
-      </c>
-      <c r="J76" s="10">
+        <v>44858</v>
+      </c>
+      <c r="J76" s="9">
         <v>8</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="20"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="19"/>
     </row>
     <row r="77" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="10" t="s">
-        <v>127</v>
+      <c r="A77" s="62"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H77" s="7">
-        <v>44858</v>
+        <v>44832</v>
       </c>
       <c r="I77" s="7">
-        <v>44858</v>
-      </c>
-      <c r="J77" s="10">
-        <v>8</v>
+        <v>44833</v>
+      </c>
+      <c r="J77" s="9">
+        <v>16</v>
       </c>
       <c r="K77" s="4">
-        <v>1</v>
-      </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="20"/>
+        <f>NETWORKDAYS(H77,I77)</f>
+        <v>2</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="19"/>
     </row>
     <row r="78" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="45"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H78" s="7">
-        <v>44832</v>
-      </c>
-      <c r="I78" s="7">
-        <v>44833</v>
-      </c>
-      <c r="J78" s="10">
-        <v>16</v>
-      </c>
-      <c r="K78" s="4">
-        <f>NETWORKDAYS(H78,I78)</f>
-        <v>2</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="20"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="19"/>
     </row>
     <row r="79" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="20"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="19"/>
     </row>
     <row r="80" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="20"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="19"/>
     </row>
     <row r="81" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="10"/>
+      <c r="A81" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" s="7">
+        <v>44859</v>
+      </c>
+      <c r="I81" s="7">
+        <v>44860</v>
+      </c>
+      <c r="J81" s="9"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="20"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="19"/>
     </row>
     <row r="82" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10" t="s">
-        <v>130</v>
+      <c r="A82" s="61"/>
+      <c r="B82" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H82" s="7">
         <v>44859</v>
@@ -4235,130 +4309,81 @@
       <c r="I82" s="7">
         <v>44860</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="20"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="19"/>
     </row>
     <row r="83" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-      <c r="B83" s="18" t="s">
+      <c r="A83" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="7">
+        <v>44860</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="19"/>
+    </row>
+    <row r="84" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="65"/>
+      <c r="B84" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H83" s="7">
-        <v>44859</v>
-      </c>
-      <c r="I83" s="7">
-        <v>44860</v>
-      </c>
-      <c r="J83" s="10"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="20"/>
-    </row>
-    <row r="84" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="10" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="9" t="s">
         <v>133</v>
       </c>
       <c r="H84" s="7">
         <v>44860</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="20"/>
-    </row>
-    <row r="85" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="65"/>
-      <c r="B85" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H85" s="7">
-        <v>44860</v>
-      </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="20"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="A4:A44"/>
-    <mergeCell ref="A46:A78"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C25:C26"/>
+  <mergeCells count="53">
+    <mergeCell ref="F2:R2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="F46:F61"/>
-    <mergeCell ref="F62:F78"/>
+    <mergeCell ref="F45:F60"/>
+    <mergeCell ref="F61:F77"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="F4:F13"/>
@@ -4370,14 +4395,39 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="F2:R2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A4:A44"/>
+    <mergeCell ref="A45:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M17:N19"/>
+    <mergeCell ref="M24:O26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4387,11 +4437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE2D2F7-F47B-49CA-98E5-C64035370E18}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4410,68 +4460,68 @@
     <col min="14" max="14" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" s="29" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="51" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="31" t="s">
+    <row r="3" spans="1:15" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -4495,16 +4545,16 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -4513,7 +4563,7 @@
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="77" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4535,21 +4585,21 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="4" t="s">
         <v>124</v>
       </c>
@@ -4569,19 +4619,19 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="53"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="4" t="s">
         <v>124</v>
       </c>
@@ -4598,25 +4648,25 @@
         <f>NETWORKDAYS.INTL(H6,I6,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="53"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="71"/>
     </row>
     <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H7" s="7">
@@ -4625,30 +4675,30 @@
       <c r="I7" s="7">
         <v>44834</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>24</v>
       </c>
       <c r="K7" s="4">
         <f>NETWORKDAYS(H7,I7)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="53"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="71"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="7">
@@ -4657,30 +4707,30 @@
       <c r="I8" s="7">
         <v>44844</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>24</v>
       </c>
       <c r="K8" s="4" t="e">
         <f>NETWORKDAYS.INTL(H8,I8,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="53"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H9" s="7">
@@ -4689,30 +4739,30 @@
       <c r="I9" s="7">
         <v>44847</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>24</v>
       </c>
       <c r="K9" s="4">
         <f>NETWORKDAYS(H9,I9)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="53"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="71"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="58"/>
+      <c r="G10" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H10" s="7">
@@ -4721,30 +4771,30 @@
       <c r="I10" s="7">
         <v>44832</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>16</v>
       </c>
       <c r="K10" s="4">
         <f>NETWORKDAYS(H10,I10)</f>
         <v>2</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="53"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="58"/>
+      <c r="G11" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H11" s="7">
@@ -4753,30 +4803,30 @@
       <c r="I11" s="7">
         <v>44834</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>16</v>
       </c>
       <c r="K11" s="4">
         <f>NETWORKDAYS(H11,I11)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="53"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H12" s="7">
@@ -4785,32 +4835,32 @@
       <c r="I12" s="7">
         <v>44844</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>24</v>
       </c>
       <c r="K12" s="4" t="e">
         <f>NETWORKDAYS.INTL(H12,I12,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="53"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="59"/>
+      <c r="G13" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="7">
@@ -4819,24 +4869,24 @@
       <c r="I13" s="7">
         <v>44848</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>24</v>
       </c>
       <c r="K13" s="4">
         <f>NETWORKDAYS(H13,I13)</f>
         <v>3</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="53"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="71"/>
     </row>
     <row r="14" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="71" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4845,10 +4895,10 @@
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="7">
@@ -4857,30 +4907,30 @@
       <c r="I14" s="7">
         <v>44843</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>24</v>
       </c>
       <c r="K14" s="4" t="e">
         <f>NETWORKDAYS.INTL(H14,I14,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="53"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="71"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H15" s="7">
@@ -4899,20 +4949,20 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="71"/>
     </row>
     <row r="16" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="7">
@@ -4921,32 +4971,32 @@
       <c r="I16" s="7">
         <v>44847</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>16</v>
       </c>
       <c r="K16" s="4">
         <f>NETWORKDAYS(H16,I16)</f>
         <v>2</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="53"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="71"/>
     </row>
     <row r="17" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="58"/>
+      <c r="G17" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H17" s="7">
@@ -4955,30 +5005,30 @@
       <c r="I17" s="7">
         <v>44834</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>24</v>
       </c>
       <c r="K17" s="4">
         <f>NETWORKDAYS(H17,I17)</f>
         <v>3</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="53"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="71"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="58"/>
+      <c r="G18" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H18" s="7">
@@ -4987,30 +5037,30 @@
       <c r="I18" s="7">
         <v>44843</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="e">
         <f>NETWORKDAYS.INTL(H18,I18,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="53"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="71"/>
     </row>
     <row r="19" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="58"/>
+      <c r="G19" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H19" s="7">
@@ -5019,29 +5069,29 @@
       <c r="I19" s="7">
         <v>44845</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>16</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="53"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="71"/>
     </row>
     <row r="20" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="11" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H20" s="7">
@@ -5050,30 +5100,30 @@
       <c r="I20" s="7">
         <v>44847</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>8</v>
       </c>
       <c r="K20" s="4">
         <f>NETWORKDAYS(H20,I20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="53"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H21" s="7">
@@ -5082,30 +5132,30 @@
       <c r="I21" s="7">
         <v>44846</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>8</v>
       </c>
       <c r="K21" s="4">
         <f>NETWORKDAYS(H21,I21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="53"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="71"/>
     </row>
     <row r="22" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="7">
@@ -5114,32 +5164,32 @@
       <c r="I22" s="7">
         <v>44848</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>8</v>
       </c>
       <c r="K22" s="4">
         <f>NETWORKDAYS(H22,I22)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="53"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="71"/>
     </row>
     <row r="23" spans="1:15" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="10" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H23" s="7">
@@ -5148,36 +5198,36 @@
       <c r="I23" s="7">
         <v>44852</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>24</v>
       </c>
       <c r="K23" s="4">
         <f>NETWORKDAYS(H23,I23)</f>
         <v>3</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="53"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="71"/>
     </row>
     <row r="24" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="7">
@@ -5186,34 +5236,34 @@
       <c r="I24" s="7">
         <v>44834</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>24</v>
       </c>
       <c r="K24" s="4">
         <f>NETWORKDAYS(H24,I24)</f>
         <v>3</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="72" t="s">
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="61"/>
+      <c r="G25" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H25" s="7">
@@ -5222,30 +5272,30 @@
       <c r="I25" s="7">
         <v>44844</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>24</v>
       </c>
       <c r="K25" s="4" t="e">
         <f>NETWORKDAYS.INTL(H25,I25,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="72"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="13" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="61"/>
+      <c r="G26" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="7">
@@ -5254,35 +5304,35 @@
       <c r="I26" s="7">
         <v>44851</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>8</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="72"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="85"/>
     </row>
     <row r="27" spans="1:15" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H27" s="7">
@@ -5291,32 +5341,32 @@
       <c r="I27" s="7">
         <v>44844</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>24</v>
       </c>
       <c r="K27" s="4" t="e">
         <f>NETWORKDAYS.INTL(H27,I27,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="72"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="85"/>
     </row>
     <row r="28" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H28" s="7">
@@ -5325,30 +5375,30 @@
       <c r="I28" s="7">
         <v>44846</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>24</v>
       </c>
       <c r="K28" s="4">
         <f>NETWORKDAYS(H28,I28)</f>
         <v>2</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="72"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="13" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="10" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H29" s="7">
@@ -5357,34 +5407,34 @@
       <c r="I29" s="7">
         <v>44847</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>8</v>
       </c>
       <c r="K29" s="4">
         <f>NETWORKDAYS(H29,I29)</f>
         <v>1</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="72"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="7">
@@ -5393,30 +5443,30 @@
       <c r="I30" s="7">
         <v>44834</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>16</v>
       </c>
       <c r="K30" s="4">
         <f>NETWORKDAYS(H30,I30)</f>
         <v>2</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="72"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="85"/>
     </row>
     <row r="31" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="46" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="61"/>
+      <c r="G31" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H31" s="7">
@@ -5425,28 +5475,28 @@
       <c r="I31" s="7">
         <v>44843</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>16</v>
       </c>
       <c r="K31" s="4" t="e">
         <f>NETWORKDAYS.INTL(H31,I31,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="72"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="85"/>
     </row>
     <row r="32" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="12" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H32" s="7">
@@ -5455,30 +5505,30 @@
       <c r="I32" s="7">
         <v>44844</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>8</v>
       </c>
       <c r="K32" s="4">
         <f>NETWORKDAYS(H32,I32)</f>
         <v>1</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="72"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="49"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="7">
@@ -5487,30 +5537,30 @@
       <c r="I33" s="7">
         <v>44847</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>24</v>
       </c>
       <c r="K33" s="4" t="e">
         <f>NETWORKDAYS.INTL(H33,I33,7,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="72"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="49"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="11" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="61"/>
+      <c r="G34" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H34" s="7">
@@ -5519,30 +5569,30 @@
       <c r="I34" s="7">
         <v>44845</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>8</v>
       </c>
       <c r="K34" s="4" t="e">
         <f>NETWORKDAYS.INTL(H34,I34,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="72"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="85"/>
     </row>
     <row r="35" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="11" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H35" s="7">
@@ -5551,30 +5601,30 @@
       <c r="I35" s="7">
         <v>44848</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>24</v>
       </c>
       <c r="K35" s="4">
         <f>NETWORKDAYS(H35,I35)</f>
         <v>3</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="72"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="85"/>
     </row>
     <row r="36" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="10" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="7">
@@ -5583,30 +5633,30 @@
       <c r="I36" s="7">
         <v>44846</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>24</v>
       </c>
       <c r="K36" s="4">
         <f>NETWORKDAYS(H36,I36)</f>
         <v>3</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="72"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="11" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="10" t="s">
+      <c r="F37" s="62"/>
+      <c r="G37" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H37" s="7">
@@ -5615,33 +5665,33 @@
       <c r="I37" s="7">
         <v>44845</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>8</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="72"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="49"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="72"/>
+      <c r="D38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H38" s="7">
@@ -5650,30 +5700,30 @@
       <c r="I38" s="7">
         <v>44842</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>8</v>
       </c>
       <c r="K38" s="4" t="e">
         <f>NETWORKDAYS.INTL(H38,I38,5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="72"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="85"/>
     </row>
     <row r="39" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="46" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="61"/>
+      <c r="G39" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H39" s="7">
@@ -5682,28 +5732,28 @@
       <c r="I39" s="7">
         <v>44851</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>8</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" ref="K39:K44" si="0">NETWORKDAYS(H39,I39)</f>
         <v>1</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="72"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="85"/>
     </row>
     <row r="40" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="12" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H40" s="7">
@@ -5712,30 +5762,30 @@
       <c r="I40" s="7">
         <v>44852</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>8</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="72"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="11" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="10" t="s">
+      <c r="F41" s="61"/>
+      <c r="G41" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H41" s="7">
@@ -5744,30 +5794,30 @@
       <c r="I41" s="7">
         <v>44852</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>16</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="72"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="10" t="s">
+      <c r="F42" s="61"/>
+      <c r="G42" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H42" s="7">
@@ -5776,30 +5826,30 @@
       <c r="I42" s="7">
         <v>44847</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>8</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="72"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="11" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="61"/>
+      <c r="G43" s="28" t="s">
         <v>131</v>
       </c>
       <c r="H43" s="7">
@@ -5808,30 +5858,30 @@
       <c r="I43" s="7">
         <v>44848</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>8</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="72"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="10" t="s">
+      <c r="F44" s="62"/>
+      <c r="G44" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H44" s="7">
@@ -5840,54 +5890,71 @@
       <c r="I44" s="7">
         <v>44854</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>16</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="45" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="72"/>
-    </row>
-    <row r="46" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62" t="s">
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="85"/>
+    </row>
+    <row r="45" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="11" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F45" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>125</v>
+      </c>
+      <c r="H45" s="7">
+        <v>44824</v>
+      </c>
+      <c r="I45" s="7">
+        <v>44825</v>
+      </c>
+      <c r="J45" s="9">
+        <v>16</v>
+      </c>
+      <c r="K45" s="4">
+        <f>NETWORKDAYS(H45,I45)</f>
+        <v>2</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="85"/>
+    </row>
+    <row r="46" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="61"/>
+      <c r="B46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H46" s="7">
         <v>44824</v>
@@ -5895,33 +5962,35 @@
       <c r="I46" s="7">
         <v>44825</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>16</v>
       </c>
       <c r="K46" s="4">
         <f>NETWORKDAYS(H46,I46)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="72"/>
-    </row>
-    <row r="47" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44"/>
-      <c r="B47" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="11" t="s">
-        <v>72</v>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="85"/>
+    </row>
+    <row r="47" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="61"/>
+      <c r="B47" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="10" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="H47" s="7">
         <v>44824</v>
@@ -5929,579 +5998,579 @@
       <c r="I47" s="7">
         <v>44825</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>16</v>
       </c>
       <c r="K47" s="4">
         <f>NETWORKDAYS(H47,I47)</f>
         <v>2</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="72"/>
-    </row>
-    <row r="48" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
-      <c r="B48" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="10" t="s">
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="85"/>
+    </row>
+    <row r="48" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="61"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H48" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I48" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J48" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J48" s="9">
         <v>16</v>
       </c>
       <c r="K48" s="4">
-        <f>NETWORKDAYS(H48,I48)</f>
+        <f>NETWORKDAYS(H47,I47)</f>
         <v>2</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="72"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="85"/>
     </row>
     <row r="49" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="10" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H49" s="7">
-        <v>44826</v>
+        <v>44852</v>
       </c>
       <c r="I49" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J49" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J49" s="9">
         <v>16</v>
       </c>
       <c r="K49" s="4">
         <f>NETWORKDAYS(H48,I48)</f>
         <v>2</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="72"/>
-    </row>
-    <row r="50" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>82</v>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="85"/>
+    </row>
+    <row r="50" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="61"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="10" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="H50" s="7">
-        <v>44852</v>
+        <v>44830</v>
       </c>
       <c r="I50" s="7">
-        <v>44853</v>
-      </c>
-      <c r="J50" s="10">
+        <v>44831</v>
+      </c>
+      <c r="J50" s="9">
         <v>16</v>
       </c>
       <c r="K50" s="4">
-        <f>NETWORKDAYS(H49,I49)</f>
+        <f>NETWORKDAYS(H50,I50)</f>
         <v>2</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="72"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="44"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="10" t="s">
-        <v>125</v>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="85"/>
+    </row>
+    <row r="51" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="61"/>
+      <c r="B51" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H51" s="7">
-        <v>44830</v>
+        <v>44824</v>
       </c>
       <c r="I51" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J51" s="10">
-        <v>16</v>
+        <v>44826</v>
+      </c>
+      <c r="J51" s="9">
+        <v>24</v>
       </c>
       <c r="K51" s="4">
         <f>NETWORKDAYS(H51,I51)</f>
-        <v>2</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="72"/>
-    </row>
-    <row r="52" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
-      <c r="B52" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="85"/>
+    </row>
+    <row r="52" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="61"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H52" s="7">
-        <v>44824</v>
+        <v>44827</v>
       </c>
       <c r="I52" s="7">
-        <v>44826</v>
-      </c>
-      <c r="J52" s="10">
-        <v>24</v>
+        <v>44830</v>
+      </c>
+      <c r="J52" s="9">
+        <v>16</v>
       </c>
       <c r="K52" s="4">
         <f>NETWORKDAYS(H52,I52)</f>
-        <v>3</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="72"/>
-    </row>
-    <row r="53" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="44"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="10" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="85"/>
+    </row>
+    <row r="53" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="61"/>
+      <c r="B53" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="H53" s="7">
-        <v>44827</v>
+        <v>44824</v>
       </c>
       <c r="I53" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J53" s="10">
+        <v>44825</v>
+      </c>
+      <c r="J53" s="9">
         <v>16</v>
       </c>
       <c r="K53" s="4">
         <f>NETWORKDAYS(H53,I53)</f>
         <v>2</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="72"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="85"/>
     </row>
     <row r="54" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
-      <c r="B54" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="10" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H54" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I54" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J54" s="10">
-        <v>16</v>
+        <v>44830</v>
+      </c>
+      <c r="J54" s="9">
+        <v>24</v>
       </c>
       <c r="K54" s="4">
         <f>NETWORKDAYS(H54,I54)</f>
+        <v>3</v>
+      </c>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="85"/>
+    </row>
+    <row r="55" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="61"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="61"/>
+      <c r="G55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="7">
+        <v>44831</v>
+      </c>
+      <c r="I55" s="7">
+        <v>44833</v>
+      </c>
+      <c r="J55" s="9">
+        <v>24</v>
+      </c>
+      <c r="K55" s="4" t="e">
+        <f>NETWORKDAYS.INTL(H55,I55,7,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="85"/>
+    </row>
+    <row r="56" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="61"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="7">
+        <v>44826</v>
+      </c>
+      <c r="I56" s="7">
+        <v>44827</v>
+      </c>
+      <c r="J56" s="9">
+        <v>16</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" ref="K56:K73" si="1">NETWORKDAYS(H56,I56)</f>
         <v>2</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="72"/>
-    </row>
-    <row r="55" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="44"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="7">
-        <v>44826</v>
-      </c>
-      <c r="I55" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J55" s="10">
-        <v>24</v>
-      </c>
-      <c r="K55" s="4">
-        <f>NETWORKDAYS(H55,I55)</f>
-        <v>3</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="72"/>
-    </row>
-    <row r="56" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" s="7">
-        <v>44831</v>
-      </c>
-      <c r="I56" s="7">
-        <v>44833</v>
-      </c>
-      <c r="J56" s="10">
-        <v>24</v>
-      </c>
-      <c r="K56" s="4" t="e">
-        <f>NETWORKDAYS.INTL(H56,I56,7,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="72"/>
-    </row>
-    <row r="57" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="10" t="s">
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="85"/>
+    </row>
+    <row r="57" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="61"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="61"/>
+      <c r="G57" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H57" s="7">
-        <v>44826</v>
+        <v>44848</v>
       </c>
       <c r="I57" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J57" s="10">
+        <v>44851</v>
+      </c>
+      <c r="J57" s="9">
         <v>16</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" ref="K57:K74" si="1">NETWORKDAYS(H57,I57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="72"/>
-    </row>
-    <row r="58" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="10" t="s">
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="85"/>
+    </row>
+    <row r="58" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="61"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="61"/>
+      <c r="G58" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H58" s="7">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="I58" s="7">
-        <v>44851</v>
-      </c>
-      <c r="J58" s="10">
+        <v>44853</v>
+      </c>
+      <c r="J58" s="9">
         <v>16</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="72"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="10" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="61"/>
+      <c r="G59" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H59" s="7">
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="I59" s="7">
-        <v>44853</v>
-      </c>
-      <c r="J59" s="10">
-        <v>16</v>
+        <v>44854</v>
+      </c>
+      <c r="J59" s="9">
+        <v>8</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="85"/>
     </row>
     <row r="60" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="44"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="10" t="s">
-        <v>125</v>
+      <c r="A60" s="61"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="62"/>
+      <c r="G60" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="H60" s="7">
-        <v>44854</v>
+        <v>44830</v>
       </c>
       <c r="I60" s="7">
-        <v>44854</v>
-      </c>
-      <c r="J60" s="10">
-        <v>8</v>
+        <v>44831</v>
+      </c>
+      <c r="J60" s="9">
+        <v>16</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="85"/>
     </row>
     <row r="61" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="44"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="10" t="s">
-        <v>129</v>
+      <c r="A61" s="61"/>
+      <c r="B61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H61" s="7">
-        <v>44830</v>
+        <v>44819</v>
       </c>
       <c r="I61" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J61" s="10">
-        <v>16</v>
+        <v>44823</v>
+      </c>
+      <c r="J61" s="9">
+        <v>24</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="85"/>
     </row>
     <row r="62" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
-      <c r="B62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>127</v>
+      <c r="A62" s="61"/>
+      <c r="B62" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="61"/>
+      <c r="G62" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H62" s="7">
-        <v>44819</v>
+        <v>44833</v>
       </c>
       <c r="I62" s="7">
-        <v>44823</v>
-      </c>
-      <c r="J62" s="10">
-        <v>24</v>
+        <v>44834</v>
+      </c>
+      <c r="J62" s="9">
+        <v>16</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="85"/>
     </row>
     <row r="63" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
-      <c r="B63" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="10" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="61"/>
+      <c r="G63" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H63" s="7">
-        <v>44833</v>
+        <v>44824</v>
       </c>
       <c r="I63" s="7">
-        <v>44834</v>
-      </c>
-      <c r="J63" s="10">
+        <v>44825</v>
+      </c>
+      <c r="J63" s="9">
         <v>16</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="72"/>
-    </row>
-    <row r="64" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
-      <c r="B64" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="11" t="s">
-        <v>72</v>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="85"/>
+    </row>
+    <row r="64" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="61"/>
+      <c r="B64" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="10" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="F64" s="61"/>
+      <c r="G64" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H64" s="7">
         <v>44824</v>
@@ -6509,556 +6578,545 @@
       <c r="I64" s="7">
         <v>44825</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>16</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="72"/>
-    </row>
-    <row r="65" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="44"/>
-      <c r="B65" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="10" t="s">
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="85"/>
+    </row>
+    <row r="65" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="61"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="61"/>
+      <c r="G65" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H65" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I65" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J65" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J65" s="9">
         <v>16</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="72"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="85"/>
     </row>
     <row r="66" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="44"/>
-      <c r="G66" s="10" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="61"/>
+      <c r="G66" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H66" s="7">
-        <v>44826</v>
+        <v>44855</v>
       </c>
       <c r="I66" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J66" s="10">
-        <v>16</v>
+        <v>44855</v>
+      </c>
+      <c r="J66" s="9">
+        <v>8</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="72"/>
-    </row>
-    <row r="67" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="44"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="85"/>
+    </row>
+    <row r="67" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="61"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="44"/>
-      <c r="G67" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="61"/>
+      <c r="G67" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H67" s="7">
-        <v>44855</v>
+        <v>44830</v>
       </c>
       <c r="I67" s="7">
-        <v>44855</v>
-      </c>
-      <c r="J67" s="10">
-        <v>8</v>
+        <v>44831</v>
+      </c>
+      <c r="J67" s="9">
+        <v>16</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="72"/>
-    </row>
-    <row r="68" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="10" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="85"/>
+    </row>
+    <row r="68" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="61"/>
+      <c r="B68" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="61"/>
+      <c r="G68" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H68" s="7">
-        <v>44830</v>
+        <v>44826</v>
       </c>
       <c r="I68" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J68" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J68" s="9">
         <v>16</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="72"/>
-    </row>
-    <row r="69" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44"/>
-      <c r="B69" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>89</v>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="85"/>
+    </row>
+    <row r="69" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="61"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="44"/>
-      <c r="G69" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="61"/>
+      <c r="G69" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H69" s="7">
-        <v>44826</v>
+        <v>44830</v>
       </c>
       <c r="I69" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J69" s="10">
-        <v>16</v>
+        <v>44830</v>
+      </c>
+      <c r="J69" s="9">
+        <v>8</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="72"/>
-    </row>
-    <row r="70" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="44"/>
-      <c r="G70" s="10" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="85"/>
+    </row>
+    <row r="70" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="61"/>
+      <c r="B70" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="61"/>
+      <c r="G70" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H70" s="7">
-        <v>44830</v>
+        <v>44824</v>
       </c>
       <c r="I70" s="7">
-        <v>44830</v>
-      </c>
-      <c r="J70" s="10">
-        <v>8</v>
+        <v>44825</v>
+      </c>
+      <c r="J70" s="9">
+        <v>16</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="72"/>
-    </row>
-    <row r="71" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="44"/>
-      <c r="B71" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="44"/>
-      <c r="G71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="85"/>
+    </row>
+    <row r="71" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="61"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="61"/>
+      <c r="G71" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H71" s="7">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="I71" s="7">
-        <v>44825</v>
-      </c>
-      <c r="J71" s="10">
+        <v>44827</v>
+      </c>
+      <c r="J71" s="9">
         <v>16</v>
       </c>
       <c r="K71" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="72"/>
-    </row>
-    <row r="72" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="44"/>
-      <c r="G72" s="10" t="s">
-        <v>127</v>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="85"/>
+    </row>
+    <row r="72" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="61"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="61"/>
+      <c r="G72" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H72" s="7">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="I72" s="7">
-        <v>44827</v>
-      </c>
-      <c r="J72" s="10">
+        <v>44832</v>
+      </c>
+      <c r="J72" s="9">
         <v>16</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="72"/>
-    </row>
-    <row r="73" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>102</v>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="85"/>
+    </row>
+    <row r="73" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="61"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="44"/>
-      <c r="G73" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="F73" s="61"/>
+      <c r="G73" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H73" s="7">
+        <v>44830</v>
+      </c>
+      <c r="I73" s="7">
         <v>44831</v>
       </c>
-      <c r="I73" s="7">
-        <v>44832</v>
-      </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>16</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="72"/>
-    </row>
-    <row r="74" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="10" t="s">
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="85"/>
+    </row>
+    <row r="74" spans="1:15" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="61"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="61"/>
+      <c r="G74" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H74" s="7">
-        <v>44830</v>
+        <v>44853</v>
       </c>
       <c r="I74" s="7">
-        <v>44831</v>
-      </c>
-      <c r="J74" s="10">
+        <v>44854</v>
+      </c>
+      <c r="J74" s="9">
         <v>16</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="1"/>
+        <f>NETWORKDAYS(H74,I74)</f>
         <v>2</v>
       </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="72"/>
-    </row>
-    <row r="75" spans="1:15" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="44"/>
-      <c r="G75" s="10" t="s">
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="85"/>
+    </row>
+    <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="61"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="61"/>
+      <c r="G75" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H75" s="7">
-        <v>44853</v>
+        <v>44855</v>
       </c>
       <c r="I75" s="7">
-        <v>44854</v>
-      </c>
-      <c r="J75" s="10">
-        <v>16</v>
+        <v>44855</v>
+      </c>
+      <c r="J75" s="9">
+        <v>8</v>
       </c>
       <c r="K75" s="4">
-        <f>NETWORKDAYS(H75,I75)</f>
-        <v>2</v>
-      </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="85"/>
     </row>
     <row r="76" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="10" t="s">
+      <c r="A76" s="61"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="61"/>
+      <c r="G76" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H76" s="7">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="I76" s="7">
-        <v>44855</v>
-      </c>
-      <c r="J76" s="10">
+        <v>44858</v>
+      </c>
+      <c r="J76" s="9">
         <v>8</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="72"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="85"/>
     </row>
     <row r="77" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="44"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="10" t="s">
-        <v>127</v>
+      <c r="A77" s="62"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H77" s="7">
-        <v>44858</v>
+        <v>44832</v>
       </c>
       <c r="I77" s="7">
-        <v>44858</v>
-      </c>
-      <c r="J77" s="10">
-        <v>8</v>
+        <v>44833</v>
+      </c>
+      <c r="J77" s="9">
+        <v>16</v>
       </c>
       <c r="K77" s="4">
-        <v>1</v>
-      </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="72"/>
+        <f>NETWORKDAYS(H77,I77)</f>
+        <v>2</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="85"/>
     </row>
     <row r="78" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="45"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H78" s="7">
-        <v>44832</v>
-      </c>
-      <c r="I78" s="7">
-        <v>44833</v>
-      </c>
-      <c r="J78" s="10">
-        <v>16</v>
-      </c>
-      <c r="K78" s="4">
-        <f>NETWORKDAYS(H78,I78)</f>
-        <v>2</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="72"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="19"/>
     </row>
     <row r="79" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="20"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="19"/>
     </row>
     <row r="80" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="20"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="19"/>
     </row>
     <row r="81" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="10"/>
+      <c r="A81" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" s="7">
+        <v>44859</v>
+      </c>
+      <c r="I81" s="7">
+        <v>44860</v>
+      </c>
+      <c r="J81" s="9"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="20"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="19"/>
     </row>
     <row r="82" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10" t="s">
-        <v>130</v>
+      <c r="A82" s="61"/>
+      <c r="B82" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H82" s="7">
         <v>44859</v>
@@ -7066,120 +7124,69 @@
       <c r="I82" s="7">
         <v>44860</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="20"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="19"/>
     </row>
     <row r="83" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="44"/>
-      <c r="B83" s="18" t="s">
+      <c r="A83" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="7">
+        <v>44860</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="19"/>
+    </row>
+    <row r="84" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="65"/>
+      <c r="B84" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H83" s="7">
-        <v>44859</v>
-      </c>
-      <c r="I83" s="7">
-        <v>44860</v>
-      </c>
-      <c r="J83" s="10"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="20"/>
-    </row>
-    <row r="84" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="10" t="s">
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="9" t="s">
         <v>133</v>
       </c>
       <c r="H84" s="7">
         <v>44860</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="20"/>
-    </row>
-    <row r="85" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="65"/>
-      <c r="B85" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H85" s="7">
-        <v>44860</v>
-      </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="20"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O23"/>
-    <mergeCell ref="O24:O78"/>
-    <mergeCell ref="F62:F78"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A46:A78"/>
-    <mergeCell ref="F46:F61"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="F38:F44"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="F30:F37"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A44"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="C4:C6"/>
@@ -7192,12 +7199,38 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="F30:F37"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A45:A77"/>
+    <mergeCell ref="F45:F60"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O23"/>
+    <mergeCell ref="O24:O77"/>
+    <mergeCell ref="F61:F77"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="B38:B44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
